--- a/PlanilhaDeMetricasPreenchidas.xlsx
+++ b/PlanilhaDeMetricasPreenchidas.xlsx
@@ -304,10 +304,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -316,46 +316,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -370,10 +370,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -388,10 +388,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -569,9 +569,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -651,7 +651,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -679,10 +679,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -938,9 +938,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1228,7 +1228,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1256,10 +1256,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1598,8 +1598,8 @@
         <v>1</v>
       </c>
       <c r="I2" s="8">
-        <f>B2/D2</f>
-        <v>0.1941695986213829</v>
+        <f>B2/E2</f>
+        <v>0.1607537748186898</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" t="s" s="10">
@@ -2242,21 +2242,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.511811" right="0.511811" top="0.787402" bottom="0.787402" header="0.314961" footer="0.314961"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
